--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il10-Il10ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il10-Il10ra.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7511673333333332</v>
+        <v>1.208813</v>
       </c>
       <c r="H2">
-        <v>2.253502</v>
+        <v>3.626439</v>
       </c>
       <c r="I2">
-        <v>0.04296322402762928</v>
+        <v>0.06175614228936263</v>
       </c>
       <c r="J2">
-        <v>0.04296322402762928</v>
+        <v>0.06175614228936264</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.07334</v>
+        <v>0.1956483333333333</v>
       </c>
       <c r="N2">
-        <v>0.22002</v>
+        <v>0.5869450000000001</v>
       </c>
       <c r="O2">
-        <v>0.001414029284930815</v>
+        <v>0.003542563479678112</v>
       </c>
       <c r="P2">
-        <v>0.001414029284930815</v>
+        <v>0.003542563479678113</v>
       </c>
       <c r="Q2">
-        <v>0.05509061222666665</v>
+        <v>0.2365022487616667</v>
       </c>
       <c r="R2">
-        <v>0.4958155100399999</v>
+        <v>2.128520238855001</v>
       </c>
       <c r="S2">
-        <v>6.075125695011102E-05</v>
+        <v>0.0002187750543201011</v>
       </c>
       <c r="T2">
-        <v>6.075125695011103E-05</v>
+        <v>0.0002187750543201011</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7511673333333332</v>
+        <v>1.208813</v>
       </c>
       <c r="H3">
-        <v>2.253502</v>
+        <v>3.626439</v>
       </c>
       <c r="I3">
-        <v>0.04296322402762928</v>
+        <v>0.06175614228936263</v>
       </c>
       <c r="J3">
-        <v>0.04296322402762928</v>
+        <v>0.06175614228936264</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.234683</v>
       </c>
       <c r="O3">
-        <v>0.001508265769818282</v>
+        <v>0.001416452010156485</v>
       </c>
       <c r="P3">
-        <v>0.001508265769818282</v>
+        <v>0.001416452010156486</v>
       </c>
       <c r="Q3">
-        <v>0.05876206776288888</v>
+        <v>0.09456262042633334</v>
       </c>
       <c r="R3">
-        <v>0.528858609866</v>
+        <v>0.8510635838370001</v>
       </c>
       <c r="S3">
-        <v>6.479996016190758E-05</v>
+        <v>8.747461188527763E-05</v>
       </c>
       <c r="T3">
-        <v>6.479996016190758E-05</v>
+        <v>8.747461188527766E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.208813</v>
+      </c>
+      <c r="H4">
+        <v>3.626439</v>
+      </c>
+      <c r="I4">
+        <v>0.06175614228936263</v>
+      </c>
+      <c r="J4">
+        <v>0.06175614228936264</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.7511673333333332</v>
-      </c>
-      <c r="H4">
-        <v>2.253502</v>
-      </c>
-      <c r="I4">
-        <v>0.04296322402762928</v>
-      </c>
-      <c r="J4">
-        <v>0.04296322402762928</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.7830870000000001</v>
+        <v>0.04544366666666667</v>
       </c>
       <c r="N4">
-        <v>2.349261</v>
+        <v>0.136331</v>
       </c>
       <c r="O4">
-        <v>0.01509828130145374</v>
+        <v>0.0008228389742616373</v>
       </c>
       <c r="P4">
-        <v>0.01509828130145374</v>
+        <v>0.0008228389742616374</v>
       </c>
       <c r="Q4">
-        <v>0.588229373558</v>
+        <v>0.05493289503433334</v>
       </c>
       <c r="R4">
-        <v>5.294064362022</v>
+        <v>0.4943960553090001</v>
       </c>
       <c r="S4">
-        <v>0.000648670841986523</v>
+        <v>5.081536077573487E-05</v>
       </c>
       <c r="T4">
-        <v>0.0006486708419865231</v>
+        <v>5.081536077573488E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7511673333333332</v>
+        <v>1.208813</v>
       </c>
       <c r="H5">
-        <v>2.253502</v>
+        <v>3.626439</v>
       </c>
       <c r="I5">
-        <v>0.04296322402762928</v>
+        <v>0.06175614228936263</v>
       </c>
       <c r="J5">
-        <v>0.04296322402762928</v>
+        <v>0.06175614228936264</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.931315</v>
+        <v>54.908578</v>
       </c>
       <c r="N5">
-        <v>152.793945</v>
+        <v>164.725734</v>
       </c>
       <c r="O5">
-        <v>0.9819794236437972</v>
+        <v>0.9942181455359038</v>
       </c>
       <c r="P5">
-        <v>0.9819794236437971</v>
+        <v>0.9942181455359038</v>
       </c>
       <c r="Q5">
-        <v>38.25794007171</v>
+        <v>66.374202897914</v>
       </c>
       <c r="R5">
-        <v>344.3214606453899</v>
+        <v>597.367826081226</v>
       </c>
       <c r="S5">
-        <v>0.04218900196853073</v>
+        <v>0.06139907726238152</v>
       </c>
       <c r="T5">
-        <v>0.04218900196853074</v>
+        <v>0.06139907726238153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>7.223608</v>
       </c>
       <c r="I6">
-        <v>0.1377187545392794</v>
+        <v>0.1230138335404451</v>
       </c>
       <c r="J6">
-        <v>0.1377187545392794</v>
+        <v>0.1230138335404451</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.07334</v>
+        <v>0.1956483333333333</v>
       </c>
       <c r="N6">
-        <v>0.22002</v>
+        <v>0.5869450000000001</v>
       </c>
       <c r="O6">
-        <v>0.001414029284930815</v>
+        <v>0.003542563479678112</v>
       </c>
       <c r="P6">
-        <v>0.001414029284930815</v>
+        <v>0.003542563479678113</v>
       </c>
       <c r="Q6">
-        <v>0.1765931369066667</v>
+        <v>0.4710956219511112</v>
       </c>
       <c r="R6">
-        <v>1.58933823216</v>
+        <v>4.239860597560001</v>
       </c>
       <c r="S6">
-        <v>0.0001947383520027396</v>
+        <v>0.0004357843141955833</v>
       </c>
       <c r="T6">
-        <v>0.0001947383520027396</v>
+        <v>0.0004357843141955833</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.223608</v>
       </c>
       <c r="I7">
-        <v>0.1377187545392794</v>
+        <v>0.1230138335404451</v>
       </c>
       <c r="J7">
-        <v>0.1377187545392794</v>
+        <v>0.1230138335404451</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.234683</v>
       </c>
       <c r="O7">
-        <v>0.001508265769818282</v>
+        <v>0.001416452010156485</v>
       </c>
       <c r="P7">
-        <v>0.001508265769818282</v>
+        <v>0.001416452010156486</v>
       </c>
       <c r="Q7">
         <v>0.1883619995848889</v>
@@ -883,10 +883,10 @@
         <v>1.695257996264</v>
       </c>
       <c r="S7">
-        <v>0.0002077164833336012</v>
+        <v>0.0001742431917954187</v>
       </c>
       <c r="T7">
-        <v>0.0002077164833336012</v>
+        <v>0.0001742431917954188</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>7.223608</v>
       </c>
       <c r="I8">
-        <v>0.1377187545392794</v>
+        <v>0.1230138335404451</v>
       </c>
       <c r="J8">
-        <v>0.1377187545392794</v>
+        <v>0.1230138335404451</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.7830870000000001</v>
+        <v>0.04544366666666667</v>
       </c>
       <c r="N8">
-        <v>2.349261</v>
+        <v>0.136331</v>
       </c>
       <c r="O8">
-        <v>0.01509828130145374</v>
+        <v>0.0008228389742616373</v>
       </c>
       <c r="P8">
-        <v>0.01509828130145374</v>
+        <v>0.0008228389742616374</v>
       </c>
       <c r="Q8">
-        <v>1.885571172632</v>
+        <v>0.1094224113608889</v>
       </c>
       <c r="R8">
-        <v>16.970140553688</v>
+        <v>0.9848017022480001</v>
       </c>
       <c r="S8">
-        <v>0.002079316496519898</v>
+        <v>0.0001012205766104116</v>
       </c>
       <c r="T8">
-        <v>0.002079316496519898</v>
+        <v>0.0001012205766104117</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>7.223608</v>
       </c>
       <c r="I9">
-        <v>0.1377187545392794</v>
+        <v>0.1230138335404451</v>
       </c>
       <c r="J9">
-        <v>0.1377187545392794</v>
+        <v>0.1230138335404451</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.931315</v>
+        <v>54.908578</v>
       </c>
       <c r="N9">
-        <v>152.793945</v>
+        <v>164.725734</v>
       </c>
       <c r="O9">
-        <v>0.9819794236437972</v>
+        <v>0.9942181455359038</v>
       </c>
       <c r="P9">
-        <v>0.9819794236437971</v>
+        <v>0.9942181455359038</v>
       </c>
       <c r="Q9">
-        <v>122.63595149484</v>
+        <v>132.2126811031413</v>
       </c>
       <c r="R9">
-        <v>1103.72356345356</v>
+        <v>1189.914129928272</v>
       </c>
       <c r="S9">
-        <v>0.1352369832074231</v>
+        <v>0.1223025854578437</v>
       </c>
       <c r="T9">
-        <v>0.1352369832074231</v>
+        <v>0.1223025854578437</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9105576666666666</v>
+        <v>0.9221053333333332</v>
       </c>
       <c r="H10">
-        <v>2.731673</v>
+        <v>2.766316</v>
       </c>
       <c r="I10">
-        <v>0.05207959836256021</v>
+        <v>0.04710874897201923</v>
       </c>
       <c r="J10">
-        <v>0.05207959836256022</v>
+        <v>0.04710874897201923</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.07334</v>
+        <v>0.1956483333333333</v>
       </c>
       <c r="N10">
-        <v>0.22002</v>
+        <v>0.5869450000000001</v>
       </c>
       <c r="O10">
-        <v>0.001414029284930815</v>
+        <v>0.003542563479678112</v>
       </c>
       <c r="P10">
-        <v>0.001414029284930815</v>
+        <v>0.003542563479678113</v>
       </c>
       <c r="Q10">
-        <v>0.06678029927333333</v>
+        <v>0.1804083716244444</v>
       </c>
       <c r="R10">
-        <v>0.6010226934599999</v>
+        <v>1.62367534462</v>
       </c>
       <c r="S10">
-        <v>7.364207723209505E-05</v>
+        <v>0.0001668857336815991</v>
       </c>
       <c r="T10">
-        <v>7.364207723209505E-05</v>
+        <v>0.0001668857336815992</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9105576666666666</v>
+        <v>0.9221053333333332</v>
       </c>
       <c r="H11">
-        <v>2.731673</v>
+        <v>2.766316</v>
       </c>
       <c r="I11">
-        <v>0.05207959836256021</v>
+        <v>0.04710874897201923</v>
       </c>
       <c r="J11">
-        <v>0.05207959836256022</v>
+        <v>0.04710874897201923</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.234683</v>
       </c>
       <c r="O11">
-        <v>0.001508265769818282</v>
+        <v>0.001416452010156485</v>
       </c>
       <c r="P11">
-        <v>0.001508265769818282</v>
+        <v>0.001416452010156486</v>
       </c>
       <c r="Q11">
-        <v>0.07123080162877778</v>
+        <v>0.07213414864755555</v>
       </c>
       <c r="R11">
-        <v>0.6410772146589999</v>
+        <v>0.649207337828</v>
       </c>
       <c r="S11">
-        <v>7.854987551613382E-05</v>
+        <v>6.67272821773739E-05</v>
       </c>
       <c r="T11">
-        <v>7.854987551613382E-05</v>
+        <v>6.672728217737391E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9221053333333332</v>
+      </c>
+      <c r="H12">
+        <v>2.766316</v>
+      </c>
+      <c r="I12">
+        <v>0.04710874897201923</v>
+      </c>
+      <c r="J12">
+        <v>0.04710874897201923</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="L12">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G12">
-        <v>0.9105576666666666</v>
-      </c>
-      <c r="H12">
-        <v>2.731673</v>
-      </c>
-      <c r="I12">
-        <v>0.05207959836256021</v>
-      </c>
-      <c r="J12">
-        <v>0.05207959836256022</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M12">
-        <v>0.7830870000000001</v>
+        <v>0.04544366666666667</v>
       </c>
       <c r="N12">
-        <v>2.349261</v>
+        <v>0.136331</v>
       </c>
       <c r="O12">
-        <v>0.01509828130145374</v>
+        <v>0.0008228389742616373</v>
       </c>
       <c r="P12">
-        <v>0.01509828130145374</v>
+        <v>0.0008228389742616374</v>
       </c>
       <c r="Q12">
-        <v>0.7130458715170001</v>
+        <v>0.04190384739955555</v>
       </c>
       <c r="R12">
-        <v>6.417412843653</v>
+        <v>0.377134626596</v>
       </c>
       <c r="S12">
-        <v>0.0007863124261446635</v>
+        <v>3.876291468288526E-05</v>
       </c>
       <c r="T12">
-        <v>0.0007863124261446636</v>
+        <v>3.876291468288527E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9105576666666666</v>
+        <v>0.9221053333333332</v>
       </c>
       <c r="H13">
-        <v>2.731673</v>
+        <v>2.766316</v>
       </c>
       <c r="I13">
-        <v>0.05207959836256021</v>
+        <v>0.04710874897201923</v>
       </c>
       <c r="J13">
-        <v>0.05207959836256022</v>
+        <v>0.04710874897201923</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>50.931315</v>
+        <v>54.908578</v>
       </c>
       <c r="N13">
-        <v>152.793945</v>
+        <v>164.725734</v>
       </c>
       <c r="O13">
-        <v>0.9819794236437972</v>
+        <v>0.9942181455359038</v>
       </c>
       <c r="P13">
-        <v>0.9819794236437971</v>
+        <v>0.9942181455359038</v>
       </c>
       <c r="Q13">
-        <v>46.375899346665</v>
+        <v>50.63149261954933</v>
       </c>
       <c r="R13">
-        <v>417.383094119985</v>
+        <v>455.6834335759439</v>
       </c>
       <c r="S13">
-        <v>0.05114109398366732</v>
+        <v>0.04683637304147737</v>
       </c>
       <c r="T13">
-        <v>0.05114109398366732</v>
+        <v>0.04683637304147738</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.41436666666667</v>
+        <v>15.03518433333333</v>
       </c>
       <c r="H14">
-        <v>40.2431</v>
+        <v>45.105553</v>
       </c>
       <c r="I14">
-        <v>0.767238423070531</v>
+        <v>0.768121275198173</v>
       </c>
       <c r="J14">
-        <v>0.7672384230705311</v>
+        <v>0.7681212751981731</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.07334</v>
+        <v>0.1956483333333333</v>
       </c>
       <c r="N14">
-        <v>0.22002</v>
+        <v>0.5869450000000001</v>
       </c>
       <c r="O14">
-        <v>0.001414029284930815</v>
+        <v>0.003542563479678112</v>
       </c>
       <c r="P14">
-        <v>0.001414029284930815</v>
+        <v>0.003542563479678113</v>
       </c>
       <c r="Q14">
-        <v>0.9838096513333333</v>
+        <v>2.941608756176111</v>
       </c>
       <c r="R14">
-        <v>8.854286861999999</v>
+        <v>26.474478805585</v>
       </c>
       <c r="S14">
-        <v>0.001084897598745869</v>
+        <v>0.002721118377480829</v>
       </c>
       <c r="T14">
-        <v>0.001084897598745869</v>
+        <v>0.002721118377480829</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.41436666666667</v>
+        <v>15.03518433333333</v>
       </c>
       <c r="H15">
-        <v>40.2431</v>
+        <v>45.105553</v>
       </c>
       <c r="I15">
-        <v>0.767238423070531</v>
+        <v>0.768121275198173</v>
       </c>
       <c r="J15">
-        <v>0.7672384230705311</v>
+        <v>0.7681212751981731</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.234683</v>
       </c>
       <c r="O15">
-        <v>0.001508265769818282</v>
+        <v>0.001416452010156485</v>
       </c>
       <c r="P15">
-        <v>0.001508265769818282</v>
+        <v>0.001416452010156486</v>
       </c>
       <c r="Q15">
-        <v>1.049374604144445</v>
+        <v>1.176167388299889</v>
       </c>
       <c r="R15">
-        <v>9.444371437299999</v>
+        <v>10.585506494699</v>
       </c>
       <c r="S15">
-        <v>0.001157199450806639</v>
+        <v>0.001088006924298415</v>
       </c>
       <c r="T15">
-        <v>0.001157199450806639</v>
+        <v>0.001088006924298415</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.41436666666667</v>
+        <v>15.03518433333333</v>
       </c>
       <c r="H16">
-        <v>40.2431</v>
+        <v>45.105553</v>
       </c>
       <c r="I16">
-        <v>0.767238423070531</v>
+        <v>0.768121275198173</v>
       </c>
       <c r="J16">
-        <v>0.7672384230705311</v>
+        <v>0.7681212751981731</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7830870000000001</v>
+        <v>0.04544366666666667</v>
       </c>
       <c r="N16">
-        <v>2.349261</v>
+        <v>0.136331</v>
       </c>
       <c r="O16">
-        <v>0.01509828130145374</v>
+        <v>0.0008228389742616373</v>
       </c>
       <c r="P16">
-        <v>0.01509828130145374</v>
+        <v>0.0008228389742616374</v>
       </c>
       <c r="Q16">
-        <v>10.5046161499</v>
+        <v>0.6832539051158889</v>
       </c>
       <c r="R16">
-        <v>94.54154534910001</v>
+        <v>6.149285146043001</v>
       </c>
       <c r="S16">
-        <v>0.01158398153680265</v>
+        <v>0.0006320401221926055</v>
       </c>
       <c r="T16">
-        <v>0.01158398153680265</v>
+        <v>0.0006320401221926056</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.41436666666667</v>
+        <v>15.03518433333333</v>
       </c>
       <c r="H17">
-        <v>40.2431</v>
+        <v>45.105553</v>
       </c>
       <c r="I17">
-        <v>0.767238423070531</v>
+        <v>0.768121275198173</v>
       </c>
       <c r="J17">
-        <v>0.7672384230705311</v>
+        <v>0.7681212751981731</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>50.931315</v>
+        <v>54.908578</v>
       </c>
       <c r="N17">
-        <v>152.793945</v>
+        <v>164.725734</v>
       </c>
       <c r="O17">
-        <v>0.9819794236437972</v>
+        <v>0.9942181455359038</v>
       </c>
       <c r="P17">
-        <v>0.9819794236437971</v>
+        <v>0.9942181455359038</v>
       </c>
       <c r="Q17">
-        <v>683.2113342255001</v>
+        <v>825.5605917112114</v>
       </c>
       <c r="R17">
-        <v>6148.9020080295</v>
+        <v>7430.045325400902</v>
       </c>
       <c r="S17">
-        <v>0.7534123444841759</v>
+        <v>0.7636801097742012</v>
       </c>
       <c r="T17">
-        <v>0.7534123444841759</v>
+        <v>0.7636801097742013</v>
       </c>
     </row>
   </sheetData>
